--- a/Radboud Credits.xlsx
+++ b/Radboud Credits.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7216c66d7a1197fd/Radboud/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Radboud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="13_ncr:1_{2806F5B5-3D00-4CCC-A24B-6B2BB58AD82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77E36171-DF1C-1C49-84AC-30B3725118E0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD99F4D-14FE-424D-B3AD-B593777587B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="15345" activeTab="1" xr2:uid="{FB296F2C-DA80-40F8-BBB5-61D08D7B0514}"/>
+    <workbookView xWindow="-120" yWindow="405" windowWidth="38640" windowHeight="20595" xr2:uid="{FB296F2C-DA80-40F8-BBB5-61D08D7B0514}"/>
   </bookViews>
   <sheets>
     <sheet name="Software Science" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="55">
   <si>
     <t>Type of Credits</t>
   </si>
@@ -153,12 +153,6 @@
   </si>
   <si>
     <t>Security Protocol Project</t>
-  </si>
-  <si>
-    <t>Selected topics on hardware for security</t>
-  </si>
-  <si>
-    <t>Machine Learning in Practice</t>
   </si>
   <si>
     <t>Failed</t>
@@ -213,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +227,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -326,7 +326,7 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -338,7 +338,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -419,34 +419,46 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40E0324C-DDB0-4380-A81B-20A946BADA81}" name="TableSem2" displayName="TableSem2" ref="A22:D27" totalsRowShown="0">
-  <autoFilter ref="A22:D27" xr:uid="{303D9785-0894-4532-986E-70F6C8A93093}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AE7C54EF-F4C2-4241-885C-D405854C3896}" name="TableSem4" displayName="TableSem4" ref="A51:D52" totalsRowShown="0">
+  <autoFilter ref="A51:D52" xr:uid="{4A3420CD-5BDD-4138-AD91-7E39C201676D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B71D3111-D56A-40C7-B6C1-4FA2BA537267}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{07684D33-119C-4EB5-8B4E-F6D38C803CCA}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{145B6583-9243-4F39-85D2-2621CC9B840C}" name="EC"/>
-    <tableColumn id="4" xr3:uid="{D640AA32-E9EA-4352-B3F5-1315D24F5B3F}" name="Period" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{068C40DF-6FF8-4937-82AC-507153FB6AD3}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{5034F4FD-A9FD-49A4-9DDB-86524146443C}" name="Type"/>
+    <tableColumn id="3" xr3:uid="{360F4A48-21D2-425F-8E28-08884F2B6E99}" name="EC"/>
+    <tableColumn id="4" xr3:uid="{0EB2C83B-0EB1-4337-8DBE-B1E5346B64DB}" name="Period" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AE7C54EF-F4C2-4241-885C-D405854C3896}" name="TableSem4" displayName="TableSem4" ref="A37:D39" totalsRowShown="0">
-  <autoFilter ref="A37:D39" xr:uid="{4A3420CD-5BDD-4138-AD91-7E39C201676D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8AE86A92-1AF2-4840-ACBF-0CFF2FA22F89}" name="TableSem1" displayName="TableSem1" ref="A27:D34" totalsRowShown="0">
+  <autoFilter ref="A27:D34" xr:uid="{DF53B3B8-9608-415F-9264-4043ECC3A433}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{068C40DF-6FF8-4937-82AC-507153FB6AD3}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{5034F4FD-A9FD-49A4-9DDB-86524146443C}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{360F4A48-21D2-425F-8E28-08884F2B6E99}" name="EC"/>
-    <tableColumn id="4" xr3:uid="{0EB2C83B-0EB1-4337-8DBE-B1E5346B64DB}" name="Period" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{387863D3-E547-4A9D-88B2-4ECD276EB915}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{14996076-230F-4887-AF98-27DF02EF1D55}" name="Type"/>
+    <tableColumn id="3" xr3:uid="{4888C41E-3E76-4D05-ABF2-4C99E612383A}" name="EC"/>
+    <tableColumn id="4" xr3:uid="{7B1A66C0-52D6-4DE1-97FC-3B1350B81192}" name="Period" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{CB33C48B-7F0E-46B3-8E86-E40E0F940613}" name="TablePrevTaken" displayName="TablePrevTaken" ref="A14:C24" totalsRowShown="0">
+  <autoFilter ref="A14:C24" xr:uid="{CB33C48B-7F0E-46B3-8E86-E40E0F940613}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{441DA41B-C3DD-4BB9-BF22-EA20E4C95008}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{5493B629-5FD2-45B8-98F0-46CFE584D0A2}" name="Type"/>
+    <tableColumn id="3" xr3:uid="{1B41F85C-60D1-48F7-A945-F4419ABF7EE4}" name="EC"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E3B0D58F-F1AB-4DF5-AC41-D4649C41C4A9}" name="TableSem18" displayName="TableSem18" ref="A28:D34" totalsRowShown="0">
-  <autoFilter ref="A28:D34" xr:uid="{DF53B3B8-9608-415F-9264-4043ECC3A433}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E3B0D58F-F1AB-4DF5-AC41-D4649C41C4A9}" name="TableSem18" displayName="TableSem18" ref="A27:D33" totalsRowShown="0">
+  <autoFilter ref="A27:D33" xr:uid="{DF53B3B8-9608-415F-9264-4043ECC3A433}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{ADC330A4-3FC8-47AB-A76F-D157CF6BE293}" name="Name"/>
     <tableColumn id="2" xr3:uid="{0D9B5411-F309-462C-9D55-F52A65F99220}" name="Type"/>
@@ -458,8 +470,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{89A6AAC9-B521-472B-AA56-7BDCC36E1B92}" name="TableSem39" displayName="TableSem39" ref="A43:D46" totalsRowShown="0">
-  <autoFilter ref="A43:D46" xr:uid="{303D9785-0894-4532-986E-70F6C8A93093}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{89A6AAC9-B521-472B-AA56-7BDCC36E1B92}" name="TableSem39" displayName="TableSem39" ref="A42:D45" totalsRowShown="0">
+  <autoFilter ref="A42:D45" xr:uid="{303D9785-0894-4532-986E-70F6C8A93093}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{28E3F32D-CF4B-4D95-8A92-F7444817276E}" name="Name"/>
     <tableColumn id="2" xr3:uid="{44491482-E770-4DE2-82B8-7BC702C2745C}" name="Type"/>
@@ -471,8 +483,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5F1B20D9-C816-4DDE-8E44-E710DC56BE21}" name="TableSem210" displayName="TableSem210" ref="A37:D40" totalsRowShown="0">
-  <autoFilter ref="A37:D40" xr:uid="{303D9785-0894-4532-986E-70F6C8A93093}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5F1B20D9-C816-4DDE-8E44-E710DC56BE21}" name="TableSem210" displayName="TableSem210" ref="A36:D39" totalsRowShown="0">
+  <autoFilter ref="A36:D39" xr:uid="{303D9785-0894-4532-986E-70F6C8A93093}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{290A3BAF-7FA5-4F62-9386-CD58DF38965D}" name="Name"/>
     <tableColumn id="2" xr3:uid="{4F2925E6-25B2-42D3-921C-0FF4839CE206}" name="Type"/>
@@ -484,8 +496,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2649B913-6A8A-4DDF-941E-2E5AE7E9832E}" name="TableSem411" displayName="TableSem411" ref="A49:D50" totalsRowShown="0">
-  <autoFilter ref="A49:D50" xr:uid="{4A3420CD-5BDD-4138-AD91-7E39C201676D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{2649B913-6A8A-4DDF-941E-2E5AE7E9832E}" name="TableSem411" displayName="TableSem411" ref="A48:D49" totalsRowShown="0">
+  <autoFilter ref="A48:D49" xr:uid="{4A3420CD-5BDD-4138-AD91-7E39C201676D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E484DCFF-2E4E-40E5-92B3-09DE9C7CFB24}" name="Name"/>
     <tableColumn id="2" xr3:uid="{7E2E4E04-BD67-4500-ABE5-295A952D9136}" name="Type"/>
@@ -497,8 +509,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2FADD0C0-BCC3-4E4A-96BA-F00E7949DD2E}" name="TableSem1813" displayName="TableSem1813" ref="A14:C25" totalsRowShown="0">
-  <autoFilter ref="A14:C25" xr:uid="{2FADD0C0-BCC3-4E4A-96BA-F00E7949DD2E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2FADD0C0-BCC3-4E4A-96BA-F00E7949DD2E}" name="TableSem1813" displayName="TableSem1813" ref="A14:C24" totalsRowShown="0">
+  <autoFilter ref="A14:C24" xr:uid="{2FADD0C0-BCC3-4E4A-96BA-F00E7949DD2E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8DA356CD-67B7-481D-B521-78E0C24BAF42}" name="Name"/>
     <tableColumn id="2" xr3:uid="{B05616DE-9900-4D7D-BB8C-DEFE993364E6}" name="Type"/>
@@ -509,13 +521,13 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F0E61AB-8A6B-4E09-9D2D-A8F287E305CD}" name="Table1" displayName="Table1" ref="A1:C9" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:C9" xr:uid="{E8D9CD78-EB2D-4D8D-A214-48A8442C7A80}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F0E61AB-8A6B-4E09-9D2D-A8F287E305CD}" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:C11" xr:uid="{E8D9CD78-EB2D-4D8D-A214-48A8442C7A80}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5B8A4BA8-3738-4182-A717-A39EDC8F8270}" name="Type of Credits"/>
     <tableColumn id="2" xr3:uid="{A31C5EB6-7DE5-464F-B052-1CD1BC8E12F8}" name="Amount of Credits"/>
-    <tableColumn id="3" xr3:uid="{59766456-1EE8-4BCF-A205-9A3F0D1C3D86}" name="Taken" dataDxfId="4">
-      <calculatedColumnFormula>SUM(SUMIF(TableSem1[Type],CyberSec!A2,TableSem1[EC]), SUMIF(TableSem2[Type],CyberSec!A2,TableSem2[EC]), SUMIF(TableSem3[Type],CyberSec!A2,TableSem3[EC]), SUMIF(TableSem4[Type],CyberSec!A2,TableSem4[EC]))</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{59766456-1EE8-4BCF-A205-9A3F0D1C3D86}" name="Taken" dataDxfId="0">
+      <calculatedColumnFormula>SUM(SUMIF(TableSem1[Type],CyberSec!A2,TableSem1[EC]), SUMIF(TableSem2[Type],CyberSec!A2,TableSem2[EC]), SUMIF(TableSem3[Type],CyberSec!A2,TableSem3[EC]), SUMIF(TableSem4[Type],CyberSec!A2,TableSem4[EC]), SUMIF(TablePrevTaken[Type],CyberSec!A2,TablePrevTaken[EC]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -523,26 +535,26 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8AE86A92-1AF2-4840-ACBF-0CFF2FA22F89}" name="TableSem1" displayName="TableSem1" ref="A12:D19" totalsRowShown="0">
-  <autoFilter ref="A12:D19" xr:uid="{DF53B3B8-9608-415F-9264-4043ECC3A433}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9A406632-0C50-42CC-914C-B52741D0D85F}" name="TableSem3" displayName="TableSem3" ref="A45:D48" totalsRowShown="0">
+  <autoFilter ref="A45:D48" xr:uid="{303D9785-0894-4532-986E-70F6C8A93093}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{387863D3-E547-4A9D-88B2-4ECD276EB915}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{14996076-230F-4887-AF98-27DF02EF1D55}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{4888C41E-3E76-4D05-ABF2-4C99E612383A}" name="EC"/>
-    <tableColumn id="4" xr3:uid="{7B1A66C0-52D6-4DE1-97FC-3B1350B81192}" name="Period" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{4678E34D-7DC1-410B-976B-D886CF11ACF0}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{A805D319-2C82-4FFA-8A8B-A9B1FFEE3DB2}" name="Type"/>
+    <tableColumn id="3" xr3:uid="{AF703CEE-BCE3-4430-A9DB-4A68C5841435}" name="EC"/>
+    <tableColumn id="4" xr3:uid="{0472FA24-D5D4-4555-AA43-364C25ECBFE5}" name="Period" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9A406632-0C50-42CC-914C-B52741D0D85F}" name="TableSem3" displayName="TableSem3" ref="A30:D34" totalsRowShown="0">
-  <autoFilter ref="A30:D34" xr:uid="{303D9785-0894-4532-986E-70F6C8A93093}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40E0324C-DDB0-4380-A81B-20A946BADA81}" name="TableSem2" displayName="TableSem2" ref="A37:D42" totalsRowShown="0">
+  <autoFilter ref="A37:D42" xr:uid="{303D9785-0894-4532-986E-70F6C8A93093}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4678E34D-7DC1-410B-976B-D886CF11ACF0}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{A805D319-2C82-4FFA-8A8B-A9B1FFEE3DB2}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{AF703CEE-BCE3-4430-A9DB-4A68C5841435}" name="EC"/>
-    <tableColumn id="4" xr3:uid="{0472FA24-D5D4-4555-AA43-364C25ECBFE5}" name="Period" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{B71D3111-D56A-40C7-B6C1-4FA2BA537267}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{07684D33-119C-4EB5-8B4E-F6D38C803CCA}" name="Type"/>
+    <tableColumn id="3" xr3:uid="{145B6583-9243-4F39-85D2-2621CC9B840C}" name="EC"/>
+    <tableColumn id="4" xr3:uid="{D640AA32-E9EA-4352-B3F5-1315D24F5B3F}" name="Period" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -845,19 +857,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7428738B-C68F-40BC-8D2C-F6101D207CA1}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I22" sqref="I21:I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.015625" customWidth="1"/>
-    <col min="2" max="2" width="36.453125" customWidth="1"/>
+    <col min="1" max="1" width="62" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -868,7 +880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -880,7 +892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -892,7 +904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -904,7 +916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -916,7 +928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -928,7 +940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -940,7 +952,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -952,7 +964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -964,9 +976,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>15</v>
@@ -976,9 +988,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -988,12 +1000,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1007,12 +1019,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -1022,7 +1034,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1033,7 +1045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1044,7 +1056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1055,7 +1067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1066,7 +1078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1077,7 +1089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1088,7 +1100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1099,7 +1111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1110,75 +1122,77 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25">
-        <v>6</v>
-      </c>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" t="s">
         <v>8</v>
       </c>
-      <c r="C29">
-        <v>6</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F28" s="3">
         <f>SUM(TableSem18[EC])</f>
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -1187,40 +1201,40 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C31">
-        <v>6</v>
-      </c>
-      <c r="D31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -1229,66 +1243,66 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34">
-        <v>6</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" t="s">
         <v>2</v>
       </c>
-      <c r="C38">
-        <v>6</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F37" s="3">
         <f>SUM(TableSem210[EC])</f>
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1297,131 +1311,117 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40">
-        <v>6</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>15</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="3">
+        <f>SUM(TableSem39[EC])</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F44" s="3">
-        <f>SUM(TableSem39[EC])</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45">
-        <v>6</v>
-      </c>
-      <c r="D45" s="5" t="s">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="10">
+        <v>6</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="10">
-        <v>6</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" t="s">
         <v>9</v>
       </c>
-      <c r="C50">
+      <c r="C49">
         <v>30</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F49" s="3">
         <f>SUM(TableSem411[EC])</f>
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38:B40 B50 B15:B25 B46 B29:B34 B44:B45" xr:uid="{66C77CDC-9829-4657-92D5-1CD1552B5D6D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37:B39 B49 B28:B33 B43:B45 B15:B24" xr:uid="{66C77CDC-9829-4657-92D5-1CD1552B5D6D}">
       <formula1>$A$2:$A$11</formula1>
     </dataValidation>
   </dataValidations>
@@ -1440,19 +1440,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CA893F-77D9-4702-9E13-3C2B7E4C846C}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.8046875" customWidth="1"/>
-    <col min="2" max="2" width="36.453125" customWidth="1"/>
+    <col min="1" max="1" width="60.85546875" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1471,11 +1471,11 @@
         <v>24</v>
       </c>
       <c r="C2">
-        <f>SUM(SUMIF(TableSem1[Type],CyberSec!A2,TableSem1[EC]), SUMIF(TableSem2[Type],CyberSec!A2,TableSem2[EC]), SUMIF(TableSem3[Type],CyberSec!A2,TableSem3[EC]), SUMIF(TableSem4[Type],CyberSec!A2,TableSem4[EC]))</f>
+        <f>SUM(SUMIF(TableSem1[Type],CyberSec!A2,TableSem1[EC]), SUMIF(TableSem2[Type],CyberSec!A2,TableSem2[EC]), SUMIF(TableSem3[Type],CyberSec!A2,TableSem3[EC]), SUMIF(TableSem4[Type],CyberSec!A2,TableSem4[EC]), SUMIF(TablePrevTaken[Type],CyberSec!A2,TablePrevTaken[EC]))</f>
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1483,11 +1483,11 @@
         <v>24</v>
       </c>
       <c r="C3">
-        <f>SUM(SUMIF(TableSem1[Type],CyberSec!A3,TableSem1[EC]), SUMIF(TableSem2[Type],CyberSec!A3,TableSem2[EC]), SUMIF(TableSem3[Type],CyberSec!A3,TableSem3[EC]), SUMIF(TableSem4[Type],CyberSec!A3,TableSem4[EC]))</f>
+        <f>SUM(SUMIF(TableSem1[Type],CyberSec!A3,TableSem1[EC]), SUMIF(TableSem2[Type],CyberSec!A3,TableSem2[EC]), SUMIF(TableSem3[Type],CyberSec!A3,TableSem3[EC]), SUMIF(TableSem4[Type],CyberSec!A3,TableSem4[EC]), SUMIF(TablePrevTaken[Type],CyberSec!A3,TablePrevTaken[EC]))</f>
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1495,11 +1495,11 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <f>SUM(SUMIF(TableSem1[Type],CyberSec!A4,TableSem1[EC]), SUMIF(TableSem2[Type],CyberSec!A4,TableSem2[EC]), SUMIF(TableSem3[Type],CyberSec!A4,TableSem3[EC]), SUMIF(TableSem4[Type],CyberSec!A4,TableSem4[EC]))</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <f>SUM(SUMIF(TableSem1[Type],CyberSec!A4,TableSem1[EC]), SUMIF(TableSem2[Type],CyberSec!A4,TableSem2[EC]), SUMIF(TableSem3[Type],CyberSec!A4,TableSem3[EC]), SUMIF(TableSem4[Type],CyberSec!A4,TableSem4[EC]), SUMIF(TablePrevTaken[Type],CyberSec!A4,TablePrevTaken[EC]))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1507,11 +1507,11 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <f>SUM(SUMIF(TableSem1[Type],CyberSec!A5,TableSem1[EC]), SUMIF(TableSem2[Type],CyberSec!A5,TableSem2[EC]), SUMIF(TableSem3[Type],CyberSec!A5,TableSem3[EC]), SUMIF(TableSem4[Type],CyberSec!A5,TableSem4[EC]))</f>
+        <f>SUM(SUMIF(TableSem1[Type],CyberSec!A5,TableSem1[EC]), SUMIF(TableSem2[Type],CyberSec!A5,TableSem2[EC]), SUMIF(TableSem3[Type],CyberSec!A5,TableSem3[EC]), SUMIF(TableSem4[Type],CyberSec!A5,TableSem4[EC]), SUMIF(TablePrevTaken[Type],CyberSec!A5,TablePrevTaken[EC]))</f>
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1519,11 +1519,11 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <f>SUM(SUMIF(TableSem1[Type],CyberSec!A6,TableSem1[EC]), SUMIF(TableSem2[Type],CyberSec!A6,TableSem2[EC]), SUMIF(TableSem3[Type],CyberSec!A6,TableSem3[EC]), SUMIF(TableSem4[Type],CyberSec!A6,TableSem4[EC]))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <f>SUM(SUMIF(TableSem1[Type],CyberSec!A6,TableSem1[EC]), SUMIF(TableSem2[Type],CyberSec!A6,TableSem2[EC]), SUMIF(TableSem3[Type],CyberSec!A6,TableSem3[EC]), SUMIF(TableSem4[Type],CyberSec!A6,TableSem4[EC]), SUMIF(TablePrevTaken[Type],CyberSec!A6,TablePrevTaken[EC]))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1531,11 +1531,11 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <f>SUM(SUMIF(TableSem1[Type],CyberSec!A7,TableSem1[EC]), SUMIF(TableSem2[Type],CyberSec!A7,TableSem2[EC]), SUMIF(TableSem3[Type],CyberSec!A7,TableSem3[EC]), SUMIF(TableSem4[Type],CyberSec!A7,TableSem4[EC]))</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <f>SUM(SUMIF(TableSem1[Type],CyberSec!A7,TableSem1[EC]), SUMIF(TableSem2[Type],CyberSec!A7,TableSem2[EC]), SUMIF(TableSem3[Type],CyberSec!A7,TableSem3[EC]), SUMIF(TableSem4[Type],CyberSec!A7,TableSem4[EC]), SUMIF(TablePrevTaken[Type],CyberSec!A7,TablePrevTaken[EC]))</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1543,11 +1543,11 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <f>SUM(SUMIF(TableSem1[Type],CyberSec!A8,TableSem1[EC]), SUMIF(TableSem2[Type],CyberSec!A8,TableSem2[EC]), SUMIF(TableSem3[Type],CyberSec!A8,TableSem3[EC]), SUMIF(TableSem4[Type],CyberSec!A8,TableSem4[EC]))</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <f>SUM(SUMIF(TableSem1[Type],CyberSec!A8,TableSem1[EC]), SUMIF(TableSem2[Type],CyberSec!A8,TableSem2[EC]), SUMIF(TableSem3[Type],CyberSec!A8,TableSem3[EC]), SUMIF(TableSem4[Type],CyberSec!A8,TableSem4[EC]), SUMIF(TablePrevTaken[Type],CyberSec!A8,TablePrevTaken[EC]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1555,387 +1555,521 @@
         <v>30</v>
       </c>
       <c r="C9">
-        <f>SUM(SUMIF(TableSem1[Type],CyberSec!A9,TableSem1[EC]), SUMIF(TableSem2[Type],CyberSec!A9,TableSem2[EC]), SUMIF(TableSem3[Type],CyberSec!A9,TableSem3[EC]), SUMIF(TableSem4[Type],CyberSec!A9,TableSem4[EC]))</f>
+        <f>SUM(SUMIF(TableSem1[Type],CyberSec!A9,TableSem1[EC]), SUMIF(TableSem2[Type],CyberSec!A9,TableSem2[EC]), SUMIF(TableSem3[Type],CyberSec!A9,TableSem3[EC]), SUMIF(TableSem4[Type],CyberSec!A9,TableSem4[EC]), SUMIF(TablePrevTaken[Type],CyberSec!A9,TablePrevTaken[EC]))</f>
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
+        <f>SUM(SUMIF(TableSem1[Type],CyberSec!A10,TableSem1[EC]), SUMIF(TableSem2[Type],CyberSec!A10,TableSem2[EC]), SUMIF(TableSem3[Type],CyberSec!A10,TableSem3[EC]), SUMIF(TableSem4[Type],CyberSec!A10,TableSem4[EC]), SUMIF(TablePrevTaken[Type],CyberSec!A10,TablePrevTaken[EC]))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
+        <f>SUM(SUMIF(TableSem1[Type],CyberSec!A11,TableSem1[EC]), SUMIF(TableSem2[Type],CyberSec!A11,TableSem2[EC]), SUMIF(TableSem3[Type],CyberSec!A11,TableSem3[EC]), SUMIF(TableSem4[Type],CyberSec!A11,TableSem4[EC]), SUMIF(TablePrevTaken[Type],CyberSec!A11,TablePrevTaken[EC]))</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3">
+        <f>SUM(TablePrevTaken[EC])</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="10">
+        <v>6</v>
+      </c>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B27" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C27" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D27" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B28" t="s">
         <v>2</v>
       </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F28" s="3">
         <f>SUM(TableSem1[EC])</f>
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B29" t="s">
         <v>2</v>
       </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B30" t="s">
         <v>2</v>
       </c>
-      <c r="C15">
-        <v>6</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16">
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31">
         <v>0</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="E31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>6</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>27</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>10</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B37" t="s">
         <v>13</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C37" t="s">
         <v>11</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D37" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F37" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B38" t="s">
         <v>2</v>
       </c>
-      <c r="C23">
-        <v>6</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F38" s="3">
         <f>SUM(TableSem2[EC])</f>
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>32</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B40" t="s">
         <v>4</v>
       </c>
-      <c r="C25">
-        <v>6</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>36</v>
       </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>6</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41" s="5">
         <v>3.4</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>38</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B42" t="s">
         <v>7</v>
       </c>
-      <c r="C27">
+      <c r="C42">
         <v>0</v>
       </c>
-      <c r="D27" s="5">
-        <v>3</v>
-      </c>
-      <c r="E27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="D42" s="5">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>10</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B45" t="s">
         <v>13</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C45" t="s">
         <v>11</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D45" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F45" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>26</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B46" t="s">
         <v>5</v>
       </c>
-      <c r="C31">
+      <c r="C46">
         <v>15</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F46" s="3">
         <f>SUM(TableSem3[EC])</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>37</v>
       </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32" s="5">
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-      <c r="D33" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>17</v>
       </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>6</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>10</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B51" t="s">
         <v>13</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C51" t="s">
         <v>11</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D51" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F51" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>34</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B52" t="s">
         <v>9</v>
       </c>
-      <c r="C38">
+      <c r="C52">
         <v>30</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F52" s="3">
         <f>SUM(TableSem4[EC])</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39">
-        <v>6</v>
-      </c>
-      <c r="D39" s="5">
-        <v>7.8</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B19 B23:B27 B38:B39 B31:B34" xr:uid="{36401A0F-606B-49B1-A6F9-F64E412EA8E7}">
-      <formula1>$A$2:$A$9</formula1>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28:B34 B38:B42 B52 B46:B48 B17:B19" xr:uid="{36401A0F-606B-49B1-A6F9-F64E412EA8E7}">
+      <formula1>$A$2:$A$11</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20:B24 B15:B16" xr:uid="{A9AA6526-EB6E-4F88-94F9-4ECBA914768F}">
+      <formula1>$A$2:$A$13</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="5">
+  <tableParts count="6">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>